--- a/Tercer Entregable/tableRelacion.xlsx
+++ b/Tercer Entregable/tableRelacion.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Table</t>
   </si>
   <si>
     <t>PK</t>
-  </si>
-  <si>
-    <t>AK</t>
   </si>
   <si>
     <t>FK</t>
@@ -83,6 +80,105 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
+      <t>RESPONSABLES</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(OID_R, NOMBRE, APELLIDOS, TELEFONO, EMAIL)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASIGNATURAS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(OID_A, NOMBRE)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>USUARIOS</t>
     </r>
     <r>
@@ -115,7 +211,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(OID_U, NOMBRE, APELLIDOS, FECHA_NACIMIENTO, DIRECCION, EMAIL, TELEFONO, DERECHO_DE_IMAGENES)</t>
+      <t>(OID_U, NOMBRE, APELLIDOS, FECHA_NACIMIENTO, DIRECCION, EMAIL, TELEFONO, DERECHO_IMAGEN)</t>
     </r>
     <r>
       <rPr>
@@ -137,19 +233,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>RESPONSABLES</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
+      <t>RELACIONES</t>
     </r>
     <r>
       <rPr>
@@ -169,7 +253,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(OID_R, NOMBRE, APELLIDOS, TELEFONO, EMAIL)</t>
+      <t>(OID_REL, OID_U, OID_R, TIPO_RELACION)</t>
     </r>
     <r>
       <rPr>
@@ -192,7 +276,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>RELACIONES</t>
+      <t>MATRICULAS</t>
     </r>
     <r>
       <rPr>
@@ -212,7 +296,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(OID_REL, OID_U, OID_R, TIPO_DE_RELACION)</t>
+      <t>(OID_M, FECHA_MATRICULACION, CURSO, CODIGO, OID_U)</t>
     </r>
     <r>
       <rPr>
@@ -235,14 +319,24 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>MATRICULAS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+      <t>FALTAS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -255,7 +349,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(OID_M, FECHA_DE_MATRICULACION, CURSO, CODIGO, OID_U)</t>
+      <t>(OID_F, TIPO_FALTA, FECHA_FALTA, JUSTIFICADA, OID_M)</t>
     </r>
     <r>
       <rPr>
@@ -278,18 +372,82 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>FALTAS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
+      <t>PAGOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(OID_PA, FECHA_PAGO, CANTIDAD, CONCEPTO, ESTADO, OID_M)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INSTRUMENTOS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(OID_I, TIPO, LIBRE, NOMBRE, ESTADO_INSTRUMENTO)</t>
     </r>
     <r>
       <rPr>
@@ -301,6 +459,41 @@
       <t xml:space="preserve">
 </t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PRESTAMOS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
     <r>
       <rPr>
         <sz val="9"/>
@@ -308,14 +501,13 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(OID_F, TIPO_DE_FALTA, FECHA_DE_FALTA, JUSTIFICADA, OID_M)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+      <t>(OID_P, FECHA_PRESTAMO, OID_M, OID_I)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -331,202 +523,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PAGOS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(OID_PA, FECHA_DE_PAGO, CANTIDAD, CONCEPTO, ESTADO, OID_M)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INSTRUMENTOS</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(OID_I, TIPO, LIBRE, NOMBRE, ESTADO_DE_INSTRUMENTO)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PRESTAMOS</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(OID_P, FECHA_DEL_PRESTAMO, OID_M, OID_I)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASIGNATURAS</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(OID_A, NOMBRE)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PARTENECE_A</t>
+      <t>PERTENECE_A</t>
     </r>
     <r>
       <rPr>
@@ -576,7 +573,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -635,6 +632,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -701,7 +704,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -725,14 +728,22 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1058,19 +1069,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" customWidth="1"/>
-    <col min="2" max="4" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="38.125" customWidth="1"/>
+    <col min="2" max="3" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="22" customHeight="1">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1080,125 +1091,112 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="72.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="7"/>
     </row>
-    <row r="2" spans="1:4" ht="73" customHeight="1">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:3" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="57.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="57.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="44.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6"/>
     </row>
-    <row r="3" spans="1:4" ht="65" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+    <row r="11" spans="1:3" ht="57.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="60">
-      <c r="A4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="72">
-      <c r="A5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="71">
-      <c r="A6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="72">
-      <c r="A7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="58">
-      <c r="A8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="58">
-      <c r="A9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="43">
-      <c r="A10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" ht="58">
-      <c r="A11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
     </row>
   </sheetData>
